--- a/500all/speech_level/speeches_CHRG-114hhrg94824.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94824.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order.    Good morning. I would like to begin by extending a special welcome to Governor Pete Ricketts. Governor, we are grateful to you for taking time out of your schedule to join us as a testament to the importance of this issue, and your dedication to the people of your state.    We are here to discuss the latest in a series of actions by the National Labor Relations Board, designed to empower big labor at the expense of America's workers.    In recent years, the President's appointees at the NLRB have undermined employee free choice through an ambush election scheme, stifled employee freedom through micro unions, and restricted employee access to secret ballot elections.    Now, the board is setting its sight on the freedom of choice provided to employees under the state right-to-work laws. In 1947, Congress passed a number of amendments to the National Labor Relations Act. One of those amendments allowed states to prohibit compulsory union membership. This important policy, known as right-to-work, simply means union membership cannot be a condition of employment and employees cannot be required to pay union dues or fees.    Today, 25 states have enacted right-to-work laws, with Indiana, Michigan, and Wisconsin recently joining the ranks. Union leaders vigorously oppose right-to-work because it leads to less control over workers and fewer dollars flowing to union coffers. But this isn't about what is best for unions, it is about what is best for workers.    Every worker has a fundamental right to decide whether or not to join a union. Those who decide not to join a union shouldn't be punished for that decision, especially when the punishment denies a worker the chance to provide for his or her family. That is why it is deeply troubling the Obama Labor Board is trying to undermine a policy embraced by workers and state leaders across the country.    In April, the Board requested public comment on whether it should adopt a new rule permitting unions to charge nonunion members grievance fees in right-to-work states. We have long heard complaints from labor leaders about so-called ``free riders''--the idea that workers who opt out of union representation and associated fees still avail themselves of the provisions laid out in the collective bargaining agreement.    When it comes to the grievance process, this argument is deeply flawed for a simple reason: workers have no choice. The grievance process is outlined in the collective bargaining agreement, and even nonunion members are bound by its requirements. There is no other recourse for nonunion members to resolve grievances aside from the process stipulated in the labor contract.    If we adopted Big Labor's logic, workers would be stuck between a rock and a hard place. They would either have to pay the union fee or forfeit any opportunity to resolve grievances with their employers. That is not what Congress intended nearly 70 years ago, and it is not what Congress intends today.    Despite the complaints of labor leaders, current policies governing grievance fees have been board precedent for decades and have been upheld in federal court. These policies shouldn't be discarded by an unelected and unaccountable board of bureaucrats.    For those who would argue we are getting ahead of ourselves, I would simply note that we have been down this road before. The board has a track record of seizing routine cases as a means to impose sweeping changes on our nation's workplaces. We have no reason to believe this case will be any different, and America's workers are once again expected to pay the price.    Right-to-work is an important tool for state leaders trying to attract new businesses and good-paying jobs. Employers at home and abroad are increasingly drawn to right-to-work states. No doubt, Governor Ricketts will explain for us why that continues to be true. Working families win when companies like Volvo, BMW, and Volkswagen build factories here in the United States. With millions of Americans searching for full-time work, why would we discourage that kind of investment in our nation's workers?    Just as importantly, why would we accept a policy that undermines the right of workers to decide whether or not they want to join a union? The board needs to pull back and leave employees in right-to-work states alone.    Before closing, I want to make a brief comment about our witness panel. Staff received word late last night that one of our intended witnesses had expressed publicly a number of offensive views. The views expressed by this individual do not reflect the views of this committee or its members, and that is why the committee withdrew the invitation for this individual to testify. It is regrettable this occurred, and we look forward to a productive hearing on the important issue at hand.    With that, I will now recognize Ranking Member Scott for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
-    <t>Robert C. "Bobby" Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. And Mr. Chairman, on that last remark, I appreciate that could happen to anyone. And I am delighted that you took the action you took.    Mr. Chairman, the title of today's hearing, ``Compulsory Unionization through Grievance Fees: The NLRB's Assault on Right-to-Work'' fundamentally distorts the legal issues in a pending appeal before the NLRB. That appeal has to do with whether a union may charge a nonmember a fee to process a grievance when they request the union's assistance. The NLRB has solicited amicus briefs, but has not acted. Regardless, the case doesn't have anything to do with the right-to-work laws. I think we ought to let the NLRB process go forward, in any case.    I represent a district in Virginia, which is a right-to-work state and has been since 1947. That means that workers who are employed at a unionized workplace in Virginia cannot be required to pay union fees as a ``condition of employment.''    However, this hearing does give us an opportunity to highlight serious policy questions beyond the narrow issue of grievance fees, such as whether the vast majority of workers are better off with stronger or weaker union representation.    Congress passed the Taft-Hartley Act in 1947 that allows states to pass these right-to-work laws that allow workers to get all of the benefits of union representation without the responsibility of paying anything for it.    Over the last 58 years, state legislators have passed so-called right-to-work laws in 25 states. Since unions have the duty of fair representation to represent members and nonmembers alike, they are obligated to incur the costs of representing free riders, who are not paying union dues, and it forces actual members to pay higher dues to cover the expenses of the free riders, which creates a further disincentive to be a union member.    When a grievance goes to arbitration, the cost to the union can often exceed $5,000 a case, an expense that dues-paying members must shoulder if the grievance is brought by a nonmember.    Again, this isn't a discussion about the right to work. It is a question of whether one desires a stronger or weaker union movement. The economic research is clear, stronger unions are better than weaker unions for building and sustaining a strong middle class. Stronger unions reduce wage inequality and help ensure that the increased wealth generated by growing productivity is fairly shared by the workers.    Falling union participation exacerbates the troubling economic conditions we are seeing today: stagnant wages and extreme levels of inequality in wealth and income. And this chart shows part of the problem. It shows from 1948 to 1973, as productivity grew 97 percent, wages went up 91 percent. But since 1973, worker output has soared another 74 percent, but income--but the hourly wages have gone up only 9 percent.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hewitt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hewitt. Chairman Kline, distinguished committee members, thank you for providing me with this opportunity to talk to you about the importance of right-to-work in the workplace.    I want to start out by saying that I am not anti-union, in spite of many of those assertions from various union members after I agreed to come here today. Unfortunately, I do live in a compulsory union state. By virtue of the fact that my company, the United Way of Southeastern Connecticut has a union, I am forced to be a union member, whether or not I wish to be.    We have had certain issues recently which have convinced us, the members, to do some research and determine what our rights actually are. Luckily, we discovered that we do, in fact, have the right to disassociate. Let me give you some background about that.    Basically, during recent contract negotiations with the OPEIU, our current union, our union officials, refused to bring any issues to the table to talk to the employees at all about what was presented to them, what issues were on the table, what was being negotiated. Most infuriating to us was the fact that the union representatives agreed to--and they claimed to--they claimed that they agreed that management had encouraged them and required them to keep a veil of secrecy and that no one could present anything to the employees during this negotiating process.    During this period, I stood up at a union meeting and noted the employees' strong displeasure with the secret negotiating process, which limited the union's ability to communicate with membership. I stated my belief to the union officials that failure to communicate with employees prevented them from faithfully fulfilling their duty to represent us.    In addition, I asked that those officials would consider signing a prospective document assuring that never again would they agree to any such process that would limit their ability to communicate with membership. The union, unfortunately, declined to make any such pledge.    Our members--many members stood up and agreed with me and noted their own displeasure with the entire negotiating process. Employees expressed frustration with the way the union officials were treating employees and had treated us for many years. Employees who dared to question the union were treated extremely rudely at this and other meetings.    We were, quite frankly, amazed that it is possible that this union tasked with representing this body of people would speak to us in such a rude fashion and treat our collective requests with such wanton disregard. It was the way that the members were treated during those meetings that convinced me and my associates to disassociate from the union's actions. Long-standing members of our union were belittled and verbally abused for simply speaking up.    The first impulse I and other members had was to drop the union altogether and negotiate directly as individuals or find another union, perhaps. But we learned--and a simple Google search allowed me to determine that there is a way to decertify. So we set about, we collected a petition with over 50 percent of our members agreeing. It was my belief, our belief, that we could submit this to management prior to the signing of the next contract and we could continue to move forward without the union.    Unfortunately, there is a contract bar rule, which provides only a small window of opportunity for that petition to be submitted. I went to and did another Google search. I was lucky to find Glenn Taubman at the National Right-to-Work, and he explained that there was this other provision, a way to disassociate and at least not be forced to pay another three years of union dues and have no one listen to us.    The bottom line is we really do not want to have to sit there and be ignored for another three years. There is absolutely no other way for us to get their attention to get them to work on our behalf and do as we ask, other than to have a vote and be able to say look, enough is enough. We had that vote; on April 30th 62 percent of the membership, in fact, voted yes, we do want to disassociate with this union.    However, the union raised an objection and indicated that--falsely, I might add--that I had some contact with the management that encouraged me to do this process. It couldn't be farther from the truth, and it should be immaterial. Irregardless, we are still waiting for the NLRB to issue the decision to certify the results of that election and allow us to move on.    In closing, I would like to say that without right-to-work, unions are all but guaranteed to become complacent and lazy in responding to the wishes of their members. This behavior borne of the ability to force dues from all employees or to get them fired is guaranteed to cause a rift between the union members and the union leadership, and will ultimately result in the collapse of the unions themselves.    Without right-to-work freedom to chose, any claim of solidarity is an obvious farce. The only way individual members can have influence over union officials is through the power of the pocketbook. Our ability to de-authorize the union dues clauses from our contract, in essence, is a line item veto of compulsory financial participation, and it has given us the chance to encourage the OPEIU union to act in the employees' best interest and to earn our voluntary support.    I think passage of a national right-to-work act would strengthen every worker in the United States who works under a monopoly bargaining arrangement. And I think that the NLRB must be stopped as it tries to weaken and undermine these rights with this parallel de-authorization process.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, sir.    Dr. Bruno you are recognized.</t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bruno. Thank you. Good morning, Chairman Kline, Ranking Member Scott, and members of the committee. My name is Robert Bruno, and I am a professor of labor and employment relations at the University of Illinois.    My testimony addresses four key points. First, I provide an explanation of what is meant by right-to-work laws. Second, I explain why the ostensible focus of the hearing today is mislabeled. Third, I describe how right-to-work laws raise fundamental equity issues. And fourth, I summarize findings from a substantial body of evidence on the negative impacts of right-to-work on workers, middle-class opportunities, and societies at large.    A right-to-work law has nothing to do with the right of an individual to seek and accept gainful employment. Instead, a right-to-work law is a government regulation that bars employers and labor unions from including union security clauses in collective bargaining agreements.    Since 1947, workers have not been forced to join a union anywhere in America. But labor unions must, by law, unconditionally represent, at times at great cost, all employees in a workplace.    In my opinion, it is premature to be commenting on the elements that may be at play in the Buckeye, Florida case. Consistent with decades of past practice, the board has simply requested that interested parties submit briefs on a set of questions.    Additionally, it is important to point out that whatever the findings of the board turn out to be, the current case does not revisit or affect in any way the standing of right-to-work laws. Nothing in the Buckeye case affects the power of a state to adopt such a law or affects any such laws currently on the books.    While there is little value in speculating on the Buckeye case, right-to-work raises serious equity issues. In right-to-work settings, workers can choose to receive 100 percent of the sizable benefits of a collective bargaining agreement, while making no contribution to the cost of providing those benefits. This arrangement violates one of the most cherished values of American society: the fairness principle.    Right-to-work, contrary to basic social tenets of individual autonomy and responsibility, celebrates--even encourages--shifting the burden of sustaining an equitable employment relationship onto others who have freely made a decision to pay their fair share.    Now, as of June 2015, there are 25 states with right-to-work laws and 25 states, plus the District of Columbia, where fair share agreements are permitted. This difference in statewide labor policy creates a natural laboratory in which researchers have analyzed economic impacts. So let me now briefly address six of those impacts of right-to-work laws.    First, there is no significant impact of right-to-work laws on overall employment in a state economy. And corporate decision makers repeatedly do not identify right-to-work laws as a defining factor in business location decisions.    Number two, right-to-work policy causes a loss in worker earnings and lowers both employer-provided health insurance and pension coverage.    Number three, by lowering worker earnings, right-to-work is associated with a drop in tax revenues and an increase in the need for government assistance. Workers, for example, in right-to-work states receive more in tax relief from the Earned Income Tax Credit than workers in collective bargaining states. By earning higher incomes, contributing more in tax revenues, and receiving less in government assistance, workers in collective bargaining states are subsidizing the low-wage model of employment in right-to-work states.    Number four, right-to-work lowers union membership. And paired with the previous impacts lends weight to claims that the true intent of right-to-work is an antipathy towards organized workers.    Number five, unions benefit individuals and society at large, for example, by raising wages, increasing employment-based health and retirement benefits, giving workers a voice at work, and standardizing safety procedures to reduce workplace fatalities and injuries.    In addition, people living in union households report higher levels of well-being than those residing in nonunion households. But, because right-to-work reduces union membership, there is a corresponding loss of these goods for individuals and society.    And number six, the United States has experienced a prolonged period of income inequality. By far, the largest institutional driver of that inequality has been the gradual decline in union membership. The decline in unionization rates explains a fifth to a third of the growth in inequality in America.    And in conclusion, right-to-work is bad public policy. Right-to-work laws have no discernible impact on job growth, lower worker earnings and benefits, have a negative impact on the public budget, while increasing reliance on government assistance programs.    Finally, right-to-work laws reduce unionization rates and the relative power of labor unions, thereby increasing societal income inequality and, importantly, restraining the growth of the middle class. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you. Dr. Gould, you are recognized.</t>
   </si>
   <si>
-    <t>Gould</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gould. Thank you. Good morning. Chairman Kline, Ranking Member Scott, and members of the committee, thank you for the invitation to speak here today on the important issue of the economics of unionization.    My name is Elise Gould, and I am a senior economist at the Economic Policy Institute. I have three important points to share with you today.    First, wage growth for typical workers has been sluggish for a generation despite sizable increases in overall productivity, incomes, and wealth.    Second, a key factor in the divergence between pay and productivity is the widespread erosion of collective bargaining that has diminished the wages of both union and nonunion workers.    Third, because right-to-work laws weaken unions, it is no surprise that wages are lower and benefits are less common in right-to-work states compared to states without such laws.    Productivity is our nation's output of goods and services per hour worked. In the three decades following World War II, the hourly compensation of a typical worker grew in tandem with productivity. Since the 1970s, however, pay and productivity were driven apart. Between 1979 and 2013, productivity grew 64 percent, while hourly compensation only grew 8 percent.    This brings me to my second point. One key factor in the divergence between pay and productivity is the widespread erosion of collective bargaining that has diminished the wages of both union and nonunion workers. In fact, the erosion of collective bargaining has been a key factor undermining pay growth for middle-wage workers over the last few decades.    When unions are able to set strong pay standards in particular occupations or industries through collective bargaining, the employers in those settings also raise the wages and benefits of nonunion workers towards the standards set through collective bargaining. Over the last 30 years, the union coverage rate was cut in half. This weakening of the collective bargaining system has had an adverse impact on the compensation of both union and nonunion workers.    The decline of collective bargaining through its impact on union and nonunion workers can explain one-third of the rise of wage inequality among men since 1979 and one-fifth among women.    Furthermore, the states where collective bargaining eroded the most since 1979 had the lowest growth in middle-class wages. Specifically, the ten states that had the least erosion of collective bargaining saw their inflation-adjusted median hourly compensation grow by 23 percent from 1979 to 2012, far faster than the 5 percent growth of the 10 states suffering the largest erosion of collective bargaining. That is a gap in compensation growth of 17.9 percentage points.    This same dynamic played out in the ability of typical workers to share in productivity growth. The divergence between the growth of median hourly compensation and productivity was greater in the states that suffered the largest erosion of collective bargaining. The greater the decline in collective bargaining coverage, the lower was the return on productivity obtained by the typical worker.    This takes me to my third point and the subject of my most recent research in the area, which is attached to this statement, the relationship between wages and right-to-work status.    At their core, right-to-work laws hamstring unions' ability to help employees bargain with their employers for better wages, benefits, and working conditions. Given that unionization raises wages for both individual union members as well as for nonunion workers in unionized sectors, it is not surprising that research shows that both union and nonunion workers in right-to-work states have lower wages and fewer benefits on average than comparable workers in other states.    Wages in right-to work states are 3.1 percent lower than those in non-right-to-work states after controlling for a full complement of individual, demographic, and socioeconomic factors, as well as state macroeconomic indicators.    This translates into right-to-work status being associated with $1,558 lower annual wages for a typical full-time, full-year worker. Related research also finds that workers in right-to-work states are less likely to have employer-sponsored health insurance and pension coverage. And these results do not just apply to union members, but to all employees in the state. Where unions are strong, compensation increases even for workers not covered by any union contract as nonunion employers face competitive pressure to match union standards.    Likewise, when unions are weakened by right-to-work laws, all the state's workers feel the impact. As unions are weakened, workers' diminished bargaining power means lower compensation and a continued divergence between pay and productivity.    Thank you for the opportunity to speak with you about this important issue.</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>400643</t>
   </si>
   <si>
-    <t>Virginia Foxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mix, you are recognized.    Mr. Mix. Yes. Thank you for the opportunity, Mr. Chairman, members of the committee. It is a pleasure to be here and talk about right-to-work.    Let's just first of all get a better definition on the table here about what right-to-work is. Right-to-work laws in 25 states do not stop any worker from joining a union. Right-to-work laws in 25 states do not stop any worker from paying union dues. Right-to-work laws in 25 states do not stop any worker from supporting the political campaigns and political actions of labor unions. They simply give workers the choice.    Fundamentally, at the bottom of the right-to-work fight is a battle between union officials and the very workers they claim to represent. This is not a battle between business and labor. This is a battle between union officials and workers, who, if given the choice, may decide they don't want to associate with a labor union. Unfortunately, in 25 states, they can be fired from their jobs for failure to tender dues or fees to a union.    You know, we talk about the right to associate in this country, the right of association. In order to have the right to associate, it is fundamentally sound to believe that you must have the right not to associate. Yet, labor policy throws that associational privilege on its head by forcing workers to associate with someone and some organization which they may not want to associate with. That is the original injustice of what we have in this regime of compulsory unions and for over 80 years in this country since 1935.    One solution, one minor solution, is to give workers the choice. In 1947, as the Chairman mentioned, Taft-Hartley was passed to basically address the issue that from 1935 from 1947, forced workers not only to pay fees to them, but actually forced them to join, to physically join a private organization. In General Motors in 1963, the Supreme Court said we have gone too far. We can't force them to join a private organization, but we can force them to pay up to 100 percent of dues or fees to keep their jobs.    The duty of monopoly representation is something that we should be discussing here, and it is something that is relevant to the discussion of the NLRB's action when it comes to charging workers for representational fees. You know, this so-called duty of fair representation was created by the U.S. Supreme Court interpreting the National Labor Relations Act in a case called Steele v. Louisville National Railroad, 1944.    And that case was a very interesting one. Because if you look at it, what happened in that case is five black train workers were not going to be represented by the union. They were forced to join, but the white union officials said they would not represent those workers. And those workers went to the Supreme Court and they said we are forced to join this organization, we are forced to accept them as our bargaining agent, but yet they choose not to support us and not represent us; in fact, won't let us even participate in a union.    And the Supreme Court said in that case, said that is a pretty amazing power that we have given to organized labor officials. And because we have given them that power to control the livelihoods of these workers and to force ourselves in between them and their opportunity to speak for themselves, we believe that the statute also created a duty to represent those workers. That is the duty of fair representation.    So you had this forced association and then you had the union saying we are not going to represent you--in this particular case because of the color of your skin--and we had the court coming back saying we can't give you this monopoly bargaining power without the right to have workers be able to represent them as well, even though they don't want to be associated with you.    The notion that we are now coming back after 60 years of NLRB precedent, Supreme Court precedent, and U.S. District Court and federal court precedent and considering the idea that we are going to force workers to pay fees for grievance representation is just another example of union officials trying to get around the right-to-work protections.    I mean, I would be scared, too if I were union officials, because three states have passed trying work laws in the last three years. Eleven states had bills in their legislature. Missouri, the House and Senate passed a right-to-work law. In New Mexico, the House of Representatives passed a right-to-work law. In Maine, there is a debate over right-to-work; in Montana. The issue of worker freedom is spreading across the country. And one of the things that you could do to stop that was to give union officials new power to force nonmembers to pay fees.    The court, in a case called Emporium v. Capwell, said that individual employees cannot individually use the grievance process. Union officials own the grievance process. That is a fact. The Supreme Court has said that, District Courts have said that, the NLRB has said that. And despite what Betty Murphy, the Republican member of the NLRB, said in 1975, in four instances since that time in NLRB proceedings, the NLRB has upheld the notion that you can't force workers to pay grievance fees.    The extant case here, the Buckeye case we are talking about, is about the idea of forcing this worker to pay a fee. Now, obviously, nothing has been happening yet on this. And we expect the NLRB to ask. They have asked for briefs, as the professor said. And we expect that the three members of that board who have changed the rules as to union elections and are looking to change the rules as to how strikes are operated are interested in changing the rules on how right-to-work laws are enforced. And I would be glad to talk to you more about that in question-and-answer.    Ms. Foxx. [Presiding.] Thank you very much. Thanks to all the panelists for doing such a great job of staying within time. I now recognize myself for five minutes to ask questions. The Chairman had to step away and will be back.</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman. And thank you all for being here and for your testimony.    Mr. Chairman, here we are again. We are here at the same place we were before talking about states' rights. Here we are again, moving back in time to a place where we want to ignore established law, we want to once again put states in a position to make a determination as to who should work and who should not. We have come to a point where we are disproportionately once again affecting populations who are poor and populations of color.    I listen to the governor talk about what happened back in 1953. Mr. Mix talked about what happened in 1944. That was before the Civil Rights Act of 1964. It was before the Voting Rights Act of 1965. It was before nondiscrimination labor laws. So let's not talk about the past. Let's deal with established law.    Professor Bruno, you talked about, or gave us examples of workers who are costing the government more money because they are in right-to-work states. Could you expand upon that, please?</t>
   </si>
   <si>
@@ -226,9 +205,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman. And I appreciate my colleagues saying we should not ignore established laws.</t>
   </si>
   <si>
@@ -268,9 +244,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. And thank you to the witnesses for being here today.    First of all, Mr. Chairman, I think, you know, the Committee, the name we have for today's hearing is a little misnamed and misguided. I think right-to-work laws prohibit union fees as a condition of employment. But grievance fees, if deemed lawful, are not a condition of employment. Grievance fees are not an attack on right-to-work laws. So the hearing is misnamed.    In fact, I would argue that we should be talking about right to freeload, rather than right-to-work laws. Because that is what I see out of this, is really a right to freeload. In fact, Mr. Mix, in your written testimony you talk about this idea of someone getting in a cab. Well, this morning I got on the metro, all right? And I swiped my card to pay. If someone else decided the metro's already going where they are going to, why don't they just hop the fence and go in, I would consider that freeloading.    And that is exactly what I see by people not paying their fees; right? I mean, we know there are cheap people in society, right? They don't want to pay to get the benefits like the others. But really, it is more about freeloading more than anything else. And I think that is what is behind these right-to-work laws.    We just went through this fight in Wisconsin. So I am very familiar with it. In fact, one of the other things that in addition to the freeloading aspect of this, it is not just that you make less money and you get less benefits, but also it doesn't create jobs. And it is not just the anecdotal sort of this is what happens in Alabama. But this is Bureau of Labor Statistics.    And I am very sensitive to these because I got PolitiFact'ed on this. And I got a mostly true because I said Wisconsin was dead last in the Midwest for job creation. Technically, we are tied for dead last. Nebraska was, in this particular report, tied for second to last.    But right-to-work doesn't seem to be having that magical formula of creating additional jobs, at least according to the Bureau of Labor Statistics, who actually counts the jobs, rather than anecdotes about individual states.    But the bottom line is people really do make less money. We know that. We know according to some studies you make $6,000. In other studies you make $7,000 less than states with right-to-work. And then I believe you make $4,000 less than the national average in right-to-work states.    So again, those are concrete numbers that show that you have a right to work for less in these states. But it doesn't necessarily benefit any people.    What I would like to do is that I would ask unanimous consent to enter into the record, I have got a list of 468 businesses in Wisconsin that oppose the right-to-work law that we just had.</t>
   </si>
   <si>
@@ -301,9 +274,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. Thank you to our distinguished guests today.    Is there anything to prohibit a person from voluntarily paying a union fee?</t>
   </si>
   <si>
@@ -328,9 +298,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    And thank you to our panel of witnesses for their testimony. This has been a very interesting discussion that has obviously gone beyond the scope of what is suggested by the title.    And I just wanted to make a big picture comment to start about some of the language. There was an analogy about union membership being analogized to kidnapping and extortion. And I think that kind of message is not very productive in a discussion about the benefits of union membership. And as some might say, not benefits. But let's have a discussion that doesn't inflame people.    And interesting that I am following on the member from Michigan. I actually was born and raised near Detroit. So my grandfather worked for Ford Motor Company before 1941, before the UAW came to Ford Motor Company. And just looking at the differences in his workplace over time from before the UAW was there in terms of safe working conditions.    And when we talk about union members, you know, we shouldn't make these stereotypes with the inflammatory language. We are talking about teachers and firefighters and people who take care of sick patients. You know, there is a really broad range of people in unions. So let's make sure that we are having a factual discussion.    So I represent a district in Oregon. We were the first state to officially recognize Labor Day back in 1887, and firmly believe that the workers in Oregon as well as across the country should be able to collectively bargain for fair wages, reasonable hours, safe workplace, health care, other hallmarks of a democratic society.    And unions continue to do things like build the infrastructure, help our economy grow, strengthen the innovation of America's workforce has long been the key to our success as a nation. And looking back over history, we cannot understate the role of the labor movement in helping to create and maintain a thriving middle class.    So in Oregon, I know we have had some discussions about the disparity in wages between union members and people who aren't in a union. But for example, the University of Oregon Labor Education Research Center identified the median hourly wage for a certified nursing assistant in an Oregon nursing facility. And there was a difference--$12.15 but in a unionized facility it was $14.29. With insurance and retirement benefits included, a little more than $15 an hour.    So when you talk about those differences in wages--and obviously, as we saw in--over history, when people have more discretionary income, they spend more so--in the marketplace.    So I wanted to ask you, Dr. Gould, your testimony states that wages in right-to-work states are lower than in states without right-to-work. And there is obviously a difference in states across the country. We have a very diverse country. So can you explain whether and how this remains true, if there are--differences in tax policy, demographics, education, other types of industry.    And I know my state of Oregon is not a right-to-work state. And we have businesses that love doing business there. It is a place to live. There are a lot of other factors that go into that consideration. So can you talk about that, whether there is data to show, considering those variations to the whole.</t>
   </si>
   <si>
@@ -352,9 +319,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman. And thank you, distinguished panel, for your testimony here today. It has been very enlightening.    As a business owner for the last 37 years in the state of Georgia, I have experienced lots of activity, both with the union and nonunion workers. Actually, the company I started working with was union. And then when we formed our company, we elected to go nonunion at that time because that was sort of the trend. And that was in the mid-1970s.    One of the things that I value about our employee relationship is the fact that, you know, we are--kind of turned the hierarchy upside down. The workers actually have a good bit to say about how we run our business. And we like it that way. And I found that in my union involvement, it was always a conflict. And it was very difficult to deal with.    But I will say that Georgia was selected by Site Selection magazine as the number one state to locate a business in. And we have been a right-to-work state for a long, long time. And we too are very proud of our workers and our productivity, our cost of living, which I don't think we have talked about cost of living or the cost of products and things like that make a big difference and competitiveness, makes a big difference, you know, where we are.    And the fact that our workers love where they work. And I have experienced that touring many of our manufacturers throughout the district since I was just recently elected to Congress. And what I have been amazed at is the attitude of the workforce out there with these manufacturers. And it has been quite enlightening to me as far as the labor front goes.    Mr. Hewitt, we haven't asked you a question. And I have been involved in United Way. I love that organization because I think it is like 90 percent of what we raise actually goes to help the agencies and the folks we are trying to help. And that is what community is all about.    And I am sure as a National United Way, you have talked to others in the--around the--I don't--we are not union. Our United Way is not union. They are in Augusta. But in your talking with these other United Ways and your having to spend apparently a lot of your time dealing with these union issues, how are you doing that and still being able to serve the very folks that need serving? Can you explain that?</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t>412613</t>
   </si>
   <si>
-    <t>Mark DeSaulnier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman. I really find this conversation interesting. Having grown up in two states that are not right-to-work states, Massachusetts, and have lived most of my live in the Bay Area, both areas that I would argue are cornerstones to innovation in this country but also have strong historical labor movements.    So while I appreciate the details of Mr. Mix and the issues about around what NLRB is about to do, I tend to believe that NLRB will do as it is designed to, as it is designed to do in the political context of who is appointed to that, depending on the administration. And then the courts will opine one way or the other.    So I am more interested in sort of the macro of--Mr. Lincoln once said that in the United States, we should always keep capital and labor roughly within balance. And he also said if capital were to become out of balance and superior, we would lose American democracy, which is my fear sitting here today.    And I say that as a former union member, but also as a former business owner of nonunion restaurants. I tended to think that if I treated my employees well, they wouldn't have a reason to organize. Sort of similar to what I have heard from the governor and previous comments.    So, Dr. Bruno, in the larger context, it seems irrefutable that we are in a period where we are in an economy that requires--is 70 percent consumer-driven. If you don't have people who are making enough income--and this is one of our challenges in the Bay Area where, by the way, we get a third of the venture capital in the United States comes to the innovative companies in the Bay Area. Our struggle is the cost of housing and the cost of living there.    And it seems pretty irrefutable that we need to have higher wages for people to buy tech products and be able to afford to live there.    So Dr. Bruno, I'd just like to ask you in your last comment, you said, ``the gradual decline in unionization has been found to be a driving force in the increase in income inequality both in the United States and across the world.''    In light of the comments that I made and the need to have a strong consumer class as your research, Dr. Gould, led you to believe at a larger level, we need to do some adjusting to the imbalance of capital markets and what we compensate workers for in America.</t>
   </si>
   <si>
@@ -424,9 +385,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. I have a couple questions for Dr. Bruno. We have recently been through rather significant changes in our labor laws in the state of Wisconsin. And both in the public sector and private sector. The public sector--the private sector change is fairly recent. Haven't had time to analyze it.    But at least in the public sector, I can think of a few examples in which, because you don't have collective bargaining, individual employees were able to make more. And, of course, that is because under most labor union contracts, everybody is treated the same. And if you have one employee who is more productive than another employee, or you have one employee whose job is different than another employee but the labor union tries to put them all in the same box, people are denied their ability to make what their job would.    How do you justify telling a very productive employee or perhaps an employee whose job description is a little different than another employee that they have to have their wages artificially held down by a union contract that they are forced to pay to negotiate?</t>
   </si>
   <si>
@@ -448,9 +406,6 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you very much, Mr. Chairman.    And the state that I was born in, live in is a right-to-work state, Arizona. And from what I have heard today of some of the comments, I--you know, I guess right-to-work laws are the panacea for citizen democracy, economic growth, individual growth, economic growth, as well.    And the fact remains, though, that ongoing and not only in my state but across this country, there is a very fundamental economic problem that families are facing in this country. That is stagnant wages and income inequality across the board.    And let me turn to Dr. Bruno, Dr. Gould. Right-to-work laws as being promoted today, putting aside the fact that there is nothing in law that prevents a rule that requires employees if you are taking the benefit of a grievance representation, then you should be able to kick in a little bit in terms of a fee for that representation. There is nothing.    But having said that, income inequality and the right-to-work law as the salve that is going to take care of this issue, which continues to persist. One question.    Have either of you--has there ever been any study--because when we talk about economic growth, I think it is always good to put another ledger there in terms of the public subsidies that go into bringing a company into a state--tax relief, forgiving taxes for 10 years, building the infrastructure--as an attraction to bring that in and what that public cost is, as well.    With that, let me--that is the only question--</t>
   </si>
   <si>
@@ -472,9 +427,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. And thanks to the panel for being here.    I would state, Professor Bruno, your slip on Illinois being a right-to-work state. From your lips to God's ears, I hope.    As a proud son, proud son of Illinois and a former United Steelworker working at U.S. Steel South Works. And if you know anything about U.S. Steel South Works, it is no longer there. The union could not save South Works. Electric furnace where I worked the, the bop shop, the blast furnaces, the rolling mills. Now, there are other problems with that, as well. It is not only the United Auto Workers fault. I understand that.    But in our setting, in Michigan where I live now--and I can proudly say we are a right-to-work state. And I have colleagues often ask me, did I remember accurately that Michigan is a right-to-work--yes, it is. But it is more than that. It is an employee free-choice state. It is also an employer free-choice state.    Because like my friend and colleague, Mr. Pocan from Wisconsin who is a business owner and has union at his business. Has that choice, as well. My father helped organize U.S. Steel United Workers there. Proud union member. Until later years when he said wait a second, we got the things we needed; working standards, safety, benefits and other things that are important. But now, let's make sure we keep the jobs, as well.    And so let me ask you, Governor Ricketts, and thank you for being here. Why do entrepreneurs and start-up companies value right-to-work legislation?    Governor Ricketts. One of the things that start up companies and entrepreneurs are looking for are making sure they have access to the best talent. And people who, you know, they are looking to attract are looking to have choice.    And so I think that, again, when you are talking about undermining the right-to-work laws, such as the NLRB is talking about doing right now for Nebraska which, again, in our constitution. You are making it harder for us to keep those young people here in Nebraska that would be attracted to these companies and are start-up companies to be able to create those jobs.    So to me it gets back to choice and attracting the best talent available.</t>
   </si>
   <si>
@@ -493,9 +445,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mix. They cannot. They cannot.    Chairman Kline.--has expired.    Mr. Jeffries.    Mr. Mix.--they can't.    Mr. Jeffries. Thank you, Mr. Chair.    Let me start with Mr. Mix. To the extent that a union in a right-to-work state collectively bargains a higher wage, the nonunion employee benefits from that higher wage; correct?</t>
   </si>
   <si>
@@ -580,9 +529,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman.    Mr. Hewitt, what were the factors that led you to believe your union officers had become unresponsive to your concerns? And under what circumstances would you financially support a union?</t>
   </si>
   <si>
@@ -604,9 +550,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    My question, Dr. Bruno or Dr. Gould, are either of you familiar with the role of training, the amount of training that unions provide to workers, especially in the building trades? I myself have visited the carpenter's union training facilities, and they are quite impressive.    Is there any other entity that--for workers, especially in the construction trades, that finances that level of training?</t>
   </si>
   <si>
@@ -643,9 +586,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman. I thank the witnesses for their testimony this morning. I am learning a lot. My first question is I think is to the governor. Thank you for being here, especially.    It seemed to me Mr. Bruno's testimony was mostly commenting on the negative economic effects of right-to-work. And I just to make sure that if you wanted to respond to any of that with any of your personal experience or from your state or anywhere else, I would like to hear it.    Governor Ricketts. Sure. It is just not my experience in the real world, the practical world, that being a right-to-work state is a disadvantage. In fact, just the opposite; that being a right-to-work state was certainly one of the things that--particularly when I was an executive, as I mentioned before, that was an important factor about where we were looking to expand. I think as companies look to see what their options are, it is an important tool to make sure they have flexibility. And frankly, that the people that work for them have flexibility. So I think it is an important thing there.    And if you look at Nebraska, for instance, we have got the lowest unemployment rate in the country, 2.5 percent. As I mentioned, we have got a high workforce participation rate. We see a lot of economic things going on in our state that are very, very good.</t>
   </si>
   <si>
@@ -679,9 +619,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman. And thank you to all the witnesses who are here today.    My oldest son graduated from high school last Friday. And as I looked out on that stage with incredible pride as a mom, but also wondering about the future for these high school grads and the college graduations that I attended in my district, as well.    I would describe my home state of Massachusetts as a right-to-a-fair-shot state. We are a proud union state. We protect collective bargaining. And I looked at these high school seniors graduating, going off to make their world in the workplace or at college. And I thought about what they are facing; rise of income inequality, a rise of child poverty, and also a rise of corporate influence and power. Not only in the board rooms, but in the political process, as well. And I have to say that I believe this right-to-work is an incredible misnomer.    But my question is for Dr. Bruno and Dr. Gould, what do you see the impact for these young people, for the people that we are trying to attract? And, by the way, I have never talked to a business that is thinking of leaving Massachusetts who has ever cited unions as a problem. High cost of housing, high cost of electricity, those are issues that we need to address. It is not unionization--that is making us a better and wealthier communities--that is ever cited as an issue.    But how do you see these issues around health insurance coverage, pensions, and wages affecting our most recent graduates?</t>
   </si>
   <si>
@@ -695,9 +632,6 @@
   </si>
   <si>
     <t>400179</t>
-  </si>
-  <si>
-    <t>Rubén Hinojosa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott for holding this important hearing today. And thanks to all the panelists for your testimony.    In these current economic challenges, I believe that it is vitally important that our nation protect the rights of American workers; to achieve this goal, and to be effective, we must get through the demagoguery and allow the National Labor Relations Board to do its job.    In many of the questions that have been asked, I can identify with the concerns that have been asked by my colleagues on both sides of the aisle. My first question is going to be to Dr. Elise Gould.    What is the relationship between the rising inequality and stagnant wages? And what role does the decline in union density play in the wage stagnation and decline of the middle class?</t>
@@ -1120,11 +1054,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1144,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1172,11 +1102,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1198,11 +1126,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1222,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1250,11 +1174,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1274,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1302,11 +1222,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1326,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1354,11 +1270,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1378,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1404,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1430,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1456,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1482,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1508,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1534,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1560,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1586,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1612,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1638,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1664,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1690,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1716,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1742,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1768,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1794,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1820,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1846,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1872,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1898,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1926,11 +1798,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1952,11 +1822,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1978,11 +1846,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2002,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2028,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2054,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2080,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2106,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2132,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2158,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="H42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2184,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2210,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2236,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2262,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2290,11 +2134,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2314,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2340,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2366,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2392,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2418,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2444,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2470,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>69</v>
-      </c>
-      <c r="G54" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2496,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2522,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2548,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2574,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2602,11 +2422,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2626,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2654,11 +2470,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2678,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2704,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2730,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2756,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2782,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2808,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2836,11 +2638,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2860,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2886,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2912,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2938,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2964,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2990,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3018,11 +2806,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3042,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3068,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3094,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3120,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3146,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3174,11 +2950,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3198,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>111</v>
-      </c>
-      <c r="G82" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3224,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3250,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
-      </c>
-      <c r="G84" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3276,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3302,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G86" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3328,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3354,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3380,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
-      </c>
-      <c r="G89" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3406,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3432,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3458,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>111</v>
-      </c>
-      <c r="G92" t="s">
-        <v>112</v>
-      </c>
-      <c r="H92" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3484,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3510,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3538,11 +3286,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3562,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
-      </c>
-      <c r="G96" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3590,11 +3334,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3614,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
-      </c>
-      <c r="G98" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3640,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3666,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3694,11 +3430,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3718,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3744,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3770,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
-      </c>
-      <c r="G104" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3796,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3822,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3850,11 +3574,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3874,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
-      </c>
-      <c r="G108" t="s">
-        <v>144</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3900,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3926,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
-      </c>
-      <c r="G110" t="s">
-        <v>144</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3952,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3978,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
-      </c>
-      <c r="G112" t="s">
-        <v>144</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4006,11 +3718,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4030,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
-      </c>
-      <c r="G114" t="s">
-        <v>152</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4056,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>151</v>
-      </c>
-      <c r="G115" t="s">
-        <v>152</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4082,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>151</v>
-      </c>
-      <c r="G116" t="s">
-        <v>152</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4108,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>151</v>
-      </c>
-      <c r="G117" t="s">
-        <v>152</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4136,11 +3838,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4160,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
-      </c>
-      <c r="G119" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4186,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>158</v>
-      </c>
-      <c r="G120" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4212,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>158</v>
-      </c>
-      <c r="G121" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4238,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
-      </c>
-      <c r="G122" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4264,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
-      </c>
-      <c r="G123" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4290,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>158</v>
-      </c>
-      <c r="G124" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4316,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
-      </c>
-      <c r="G125" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4342,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4368,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>158</v>
-      </c>
-      <c r="G127" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4394,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G128" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4420,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>158</v>
-      </c>
-      <c r="G129" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4446,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4472,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4498,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
-      </c>
-      <c r="G132" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4524,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>158</v>
-      </c>
-      <c r="G133" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4550,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>158</v>
-      </c>
-      <c r="G134" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4576,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
+        <v>142</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>158</v>
-      </c>
-      <c r="G135" t="s">
-        <v>159</v>
-      </c>
-      <c r="H135" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4602,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" t="s">
+        <v>142</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
         <v>159</v>
-      </c>
-      <c r="H136" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4628,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>158</v>
-      </c>
-      <c r="G137" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4654,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4680,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
-      </c>
-      <c r="G139" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4706,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4732,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G141" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4758,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4784,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4810,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4836,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>158</v>
-      </c>
-      <c r="G145" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4864,11 +4510,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4888,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>187</v>
-      </c>
-      <c r="G147" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4914,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4940,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>187</v>
-      </c>
-      <c r="G149" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4966,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4992,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>187</v>
-      </c>
-      <c r="G151" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5020,11 +4654,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5044,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>195</v>
-      </c>
-      <c r="G153" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5070,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5096,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>195</v>
-      </c>
-      <c r="G155" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5122,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5148,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
-      </c>
-      <c r="G157" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5174,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5200,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5226,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>195</v>
-      </c>
-      <c r="G160" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5252,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5278,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>195</v>
-      </c>
-      <c r="G162" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5306,11 +4918,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5330,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>208</v>
-      </c>
-      <c r="G164" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5356,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>208</v>
-      </c>
-      <c r="G165" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5382,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>208</v>
-      </c>
-      <c r="G166" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5408,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>208</v>
-      </c>
-      <c r="G167" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5434,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>208</v>
-      </c>
-      <c r="G168" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5460,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>208</v>
-      </c>
-      <c r="G169" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5486,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>208</v>
-      </c>
-      <c r="G170" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5512,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>208</v>
-      </c>
-      <c r="G171" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5538,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>208</v>
-      </c>
-      <c r="G172" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5566,11 +5158,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5590,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>220</v>
-      </c>
-      <c r="G174" t="s">
-        <v>221</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5616,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5642,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>220</v>
-      </c>
-      <c r="G176" t="s">
-        <v>221</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5670,11 +5254,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5694,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>226</v>
-      </c>
-      <c r="G178" t="s">
-        <v>227</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5720,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5746,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>226</v>
-      </c>
-      <c r="G180" t="s">
-        <v>227</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5772,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5798,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>226</v>
-      </c>
-      <c r="G182" t="s">
-        <v>227</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5826,11 +5398,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5850,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5878,11 +5446,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94824.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94824.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order.    Good morning. I would like to begin by extending a special welcome to Governor Pete Ricketts. Governor, we are grateful to you for taking time out of your schedule to join us as a testament to the importance of this issue, and your dedication to the people of your state.    We are here to discuss the latest in a series of actions by the National Labor Relations Board, designed to empower big labor at the expense of America's workers.    In recent years, the President's appointees at the NLRB have undermined employee free choice through an ambush election scheme, stifled employee freedom through micro unions, and restricted employee access to secret ballot elections.    Now, the board is setting its sight on the freedom of choice provided to employees under the state right-to-work laws. In 1947, Congress passed a number of amendments to the National Labor Relations Act. One of those amendments allowed states to prohibit compulsory union membership. This important policy, known as right-to-work, simply means union membership cannot be a condition of employment and employees cannot be required to pay union dues or fees.    Today, 25 states have enacted right-to-work laws, with Indiana, Michigan, and Wisconsin recently joining the ranks. Union leaders vigorously oppose right-to-work because it leads to less control over workers and fewer dollars flowing to union coffers. But this isn't about what is best for unions, it is about what is best for workers.    Every worker has a fundamental right to decide whether or not to join a union. Those who decide not to join a union shouldn't be punished for that decision, especially when the punishment denies a worker the chance to provide for his or her family. That is why it is deeply troubling the Obama Labor Board is trying to undermine a policy embraced by workers and state leaders across the country.    In April, the Board requested public comment on whether it should adopt a new rule permitting unions to charge nonunion members grievance fees in right-to-work states. We have long heard complaints from labor leaders about so-called ``free riders''--the idea that workers who opt out of union representation and associated fees still avail themselves of the provisions laid out in the collective bargaining agreement.    When it comes to the grievance process, this argument is deeply flawed for a simple reason: workers have no choice. The grievance process is outlined in the collective bargaining agreement, and even nonunion members are bound by its requirements. There is no other recourse for nonunion members to resolve grievances aside from the process stipulated in the labor contract.    If we adopted Big Labor's logic, workers would be stuck between a rock and a hard place. They would either have to pay the union fee or forfeit any opportunity to resolve grievances with their employers. That is not what Congress intended nearly 70 years ago, and it is not what Congress intends today.    Despite the complaints of labor leaders, current policies governing grievance fees have been board precedent for decades and have been upheld in federal court. These policies shouldn't be discarded by an unelected and unaccountable board of bureaucrats.    For those who would argue we are getting ahead of ourselves, I would simply note that we have been down this road before. The board has a track record of seizing routine cases as a means to impose sweeping changes on our nation's workplaces. We have no reason to believe this case will be any different, and America's workers are once again expected to pay the price.    Right-to-work is an important tool for state leaders trying to attract new businesses and good-paying jobs. Employers at home and abroad are increasingly drawn to right-to-work states. No doubt, Governor Ricketts will explain for us why that continues to be true. Working families win when companies like Volvo, BMW, and Volkswagen build factories here in the United States. With millions of Americans searching for full-time work, why would we discourage that kind of investment in our nation's workers?    Just as importantly, why would we accept a policy that undermines the right of workers to decide whether or not they want to join a union? The board needs to pull back and leave employees in right-to-work states alone.    Before closing, I want to make a brief comment about our witness panel. Staff received word late last night that one of our intended witnesses had expressed publicly a number of offensive views. The views expressed by this individual do not reflect the views of this committee or its members, and that is why the committee withdrew the invitation for this individual to testify. It is regrettable this occurred, and we look forward to a productive hearing on the important issue at hand.    With that, I will now recognize Ranking Member Scott for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. And Mr. Chairman, on that last remark, I appreciate that could happen to anyone. And I am delighted that you took the action you took.    Mr. Chairman, the title of today's hearing, ``Compulsory Unionization through Grievance Fees: The NLRB's Assault on Right-to-Work'' fundamentally distorts the legal issues in a pending appeal before the NLRB. That appeal has to do with whether a union may charge a nonmember a fee to process a grievance when they request the union's assistance. The NLRB has solicited amicus briefs, but has not acted. Regardless, the case doesn't have anything to do with the right-to-work laws. I think we ought to let the NLRB process go forward, in any case.    I represent a district in Virginia, which is a right-to-work state and has been since 1947. That means that workers who are employed at a unionized workplace in Virginia cannot be required to pay union fees as a ``condition of employment.''    However, this hearing does give us an opportunity to highlight serious policy questions beyond the narrow issue of grievance fees, such as whether the vast majority of workers are better off with stronger or weaker union representation.    Congress passed the Taft-Hartley Act in 1947 that allows states to pass these right-to-work laws that allow workers to get all of the benefits of union representation without the responsibility of paying anything for it.    Over the last 58 years, state legislators have passed so-called right-to-work laws in 25 states. Since unions have the duty of fair representation to represent members and nonmembers alike, they are obligated to incur the costs of representing free riders, who are not paying union dues, and it forces actual members to pay higher dues to cover the expenses of the free riders, which creates a further disincentive to be a union member.    When a grievance goes to arbitration, the cost to the union can often exceed $5,000 a case, an expense that dues-paying members must shoulder if the grievance is brought by a nonmember.    Again, this isn't a discussion about the right to work. It is a question of whether one desires a stronger or weaker union movement. The economic research is clear, stronger unions are better than weaker unions for building and sustaining a strong middle class. Stronger unions reduce wage inequality and help ensure that the increased wealth generated by growing productivity is fairly shared by the workers.    Falling union participation exacerbates the troubling economic conditions we are seeing today: stagnant wages and extreme levels of inequality in wealth and income. And this chart shows part of the problem. It shows from 1948 to 1973, as productivity grew 97 percent, wages went up 91 percent. But since 1973, worker output has soared another 74 percent, but income--but the hourly wages have gone up only 9 percent.</t>
   </si>
   <si>
@@ -70,18 +85,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hewitt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hewitt. Chairman Kline, distinguished committee members, thank you for providing me with this opportunity to talk to you about the importance of right-to-work in the workplace.    I want to start out by saying that I am not anti-union, in spite of many of those assertions from various union members after I agreed to come here today. Unfortunately, I do live in a compulsory union state. By virtue of the fact that my company, the United Way of Southeastern Connecticut has a union, I am forced to be a union member, whether or not I wish to be.    We have had certain issues recently which have convinced us, the members, to do some research and determine what our rights actually are. Luckily, we discovered that we do, in fact, have the right to disassociate. Let me give you some background about that.    Basically, during recent contract negotiations with the OPEIU, our current union, our union officials, refused to bring any issues to the table to talk to the employees at all about what was presented to them, what issues were on the table, what was being negotiated. Most infuriating to us was the fact that the union representatives agreed to--and they claimed to--they claimed that they agreed that management had encouraged them and required them to keep a veil of secrecy and that no one could present anything to the employees during this negotiating process.    During this period, I stood up at a union meeting and noted the employees' strong displeasure with the secret negotiating process, which limited the union's ability to communicate with membership. I stated my belief to the union officials that failure to communicate with employees prevented them from faithfully fulfilling their duty to represent us.    In addition, I asked that those officials would consider signing a prospective document assuring that never again would they agree to any such process that would limit their ability to communicate with membership. The union, unfortunately, declined to make any such pledge.    Our members--many members stood up and agreed with me and noted their own displeasure with the entire negotiating process. Employees expressed frustration with the way the union officials were treating employees and had treated us for many years. Employees who dared to question the union were treated extremely rudely at this and other meetings.    We were, quite frankly, amazed that it is possible that this union tasked with representing this body of people would speak to us in such a rude fashion and treat our collective requests with such wanton disregard. It was the way that the members were treated during those meetings that convinced me and my associates to disassociate from the union's actions. Long-standing members of our union were belittled and verbally abused for simply speaking up.    The first impulse I and other members had was to drop the union altogether and negotiate directly as individuals or find another union, perhaps. But we learned--and a simple Google search allowed me to determine that there is a way to decertify. So we set about, we collected a petition with over 50 percent of our members agreeing. It was my belief, our belief, that we could submit this to management prior to the signing of the next contract and we could continue to move forward without the union.    Unfortunately, there is a contract bar rule, which provides only a small window of opportunity for that petition to be submitted. I went to and did another Google search. I was lucky to find Glenn Taubman at the National Right-to-Work, and he explained that there was this other provision, a way to disassociate and at least not be forced to pay another three years of union dues and have no one listen to us.    The bottom line is we really do not want to have to sit there and be ignored for another three years. There is absolutely no other way for us to get their attention to get them to work on our behalf and do as we ask, other than to have a vote and be able to say look, enough is enough. We had that vote; on April 30th 62 percent of the membership, in fact, voted yes, we do want to disassociate with this union.    However, the union raised an objection and indicated that--falsely, I might add--that I had some contact with the management that encouraged me to do this process. It couldn't be farther from the truth, and it should be immaterial. Irregardless, we are still waiting for the NLRB to issue the decision to certify the results of that election and allow us to move on.    In closing, I would like to say that without right-to-work, unions are all but guaranteed to become complacent and lazy in responding to the wishes of their members. This behavior borne of the ability to force dues from all employees or to get them fired is guaranteed to cause a rift between the union members and the union leadership, and will ultimately result in the collapse of the unions themselves.    Without right-to-work freedom to chose, any claim of solidarity is an obvious farce. The only way individual members can have influence over union officials is through the power of the pocketbook. Our ability to de-authorize the union dues clauses from our contract, in essence, is a line item veto of compulsory financial participation, and it has given us the chance to encourage the OPEIU union to act in the employees' best interest and to earn our voluntary support.    I think passage of a national right-to-work act would strengthen every worker in the United States who works under a monopoly bargaining arrangement. And I think that the NLRB must be stopped as it tries to weaken and undermine these rights with this parallel de-authorization process.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, sir.    Dr. Bruno you are recognized.</t>
   </si>
   <si>
+    <t>Bruno</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bruno. Thank you. Good morning, Chairman Kline, Ranking Member Scott, and members of the committee. My name is Robert Bruno, and I am a professor of labor and employment relations at the University of Illinois.    My testimony addresses four key points. First, I provide an explanation of what is meant by right-to-work laws. Second, I explain why the ostensible focus of the hearing today is mislabeled. Third, I describe how right-to-work laws raise fundamental equity issues. And fourth, I summarize findings from a substantial body of evidence on the negative impacts of right-to-work on workers, middle-class opportunities, and societies at large.    A right-to-work law has nothing to do with the right of an individual to seek and accept gainful employment. Instead, a right-to-work law is a government regulation that bars employers and labor unions from including union security clauses in collective bargaining agreements.    Since 1947, workers have not been forced to join a union anywhere in America. But labor unions must, by law, unconditionally represent, at times at great cost, all employees in a workplace.    In my opinion, it is premature to be commenting on the elements that may be at play in the Buckeye, Florida case. Consistent with decades of past practice, the board has simply requested that interested parties submit briefs on a set of questions.    Additionally, it is important to point out that whatever the findings of the board turn out to be, the current case does not revisit or affect in any way the standing of right-to-work laws. Nothing in the Buckeye case affects the power of a state to adopt such a law or affects any such laws currently on the books.    While there is little value in speculating on the Buckeye case, right-to-work raises serious equity issues. In right-to-work settings, workers can choose to receive 100 percent of the sizable benefits of a collective bargaining agreement, while making no contribution to the cost of providing those benefits. This arrangement violates one of the most cherished values of American society: the fairness principle.    Right-to-work, contrary to basic social tenets of individual autonomy and responsibility, celebrates--even encourages--shifting the burden of sustaining an equitable employment relationship onto others who have freely made a decision to pay their fair share.    Now, as of June 2015, there are 25 states with right-to-work laws and 25 states, plus the District of Columbia, where fair share agreements are permitted. This difference in statewide labor policy creates a natural laboratory in which researchers have analyzed economic impacts. So let me now briefly address six of those impacts of right-to-work laws.    First, there is no significant impact of right-to-work laws on overall employment in a state economy. And corporate decision makers repeatedly do not identify right-to-work laws as a defining factor in business location decisions.    Number two, right-to-work policy causes a loss in worker earnings and lowers both employer-provided health insurance and pension coverage.    Number three, by lowering worker earnings, right-to-work is associated with a drop in tax revenues and an increase in the need for government assistance. Workers, for example, in right-to-work states receive more in tax relief from the Earned Income Tax Credit than workers in collective bargaining states. By earning higher incomes, contributing more in tax revenues, and receiving less in government assistance, workers in collective bargaining states are subsidizing the low-wage model of employment in right-to-work states.    Number four, right-to-work lowers union membership. And paired with the previous impacts lends weight to claims that the true intent of right-to-work is an antipathy towards organized workers.    Number five, unions benefit individuals and society at large, for example, by raising wages, increasing employment-based health and retirement benefits, giving workers a voice at work, and standardizing safety procedures to reduce workplace fatalities and injuries.    In addition, people living in union households report higher levels of well-being than those residing in nonunion households. But, because right-to-work reduces union membership, there is a corresponding loss of these goods for individuals and society.    And number six, the United States has experienced a prolonged period of income inequality. By far, the largest institutional driver of that inequality has been the gradual decline in union membership. The decline in unionization rates explains a fifth to a third of the growth in inequality in America.    And in conclusion, right-to-work is bad public policy. Right-to-work laws have no discernible impact on job growth, lower worker earnings and benefits, have a negative impact on the public budget, while increasing reliance on government assistance programs.    Finally, right-to-work laws reduce unionization rates and the relative power of labor unions, thereby increasing societal income inequality and, importantly, restraining the growth of the middle class. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you. Dr. Gould, you are recognized.</t>
   </si>
   <si>
+    <t>Gould</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gould. Thank you. Good morning. Chairman Kline, Ranking Member Scott, and members of the committee, thank you for the invitation to speak here today on the important issue of the economics of unionization.    My name is Elise Gould, and I am a senior economist at the Economic Policy Institute. I have three important points to share with you today.    First, wage growth for typical workers has been sluggish for a generation despite sizable increases in overall productivity, incomes, and wealth.    Second, a key factor in the divergence between pay and productivity is the widespread erosion of collective bargaining that has diminished the wages of both union and nonunion workers.    Third, because right-to-work laws weaken unions, it is no surprise that wages are lower and benefits are less common in right-to-work states compared to states without such laws.    Productivity is our nation's output of goods and services per hour worked. In the three decades following World War II, the hourly compensation of a typical worker grew in tandem with productivity. Since the 1970s, however, pay and productivity were driven apart. Between 1979 and 2013, productivity grew 64 percent, while hourly compensation only grew 8 percent.    This brings me to my second point. One key factor in the divergence between pay and productivity is the widespread erosion of collective bargaining that has diminished the wages of both union and nonunion workers. In fact, the erosion of collective bargaining has been a key factor undermining pay growth for middle-wage workers over the last few decades.    When unions are able to set strong pay standards in particular occupations or industries through collective bargaining, the employers in those settings also raise the wages and benefits of nonunion workers towards the standards set through collective bargaining. Over the last 30 years, the union coverage rate was cut in half. This weakening of the collective bargaining system has had an adverse impact on the compensation of both union and nonunion workers.    The decline of collective bargaining through its impact on union and nonunion workers can explain one-third of the rise of wage inequality among men since 1979 and one-fifth among women.    Furthermore, the states where collective bargaining eroded the most since 1979 had the lowest growth in middle-class wages. Specifically, the ten states that had the least erosion of collective bargaining saw their inflation-adjusted median hourly compensation grow by 23 percent from 1979 to 2012, far faster than the 5 percent growth of the 10 states suffering the largest erosion of collective bargaining. That is a gap in compensation growth of 17.9 percentage points.    This same dynamic played out in the ability of typical workers to share in productivity growth. The divergence between the growth of median hourly compensation and productivity was greater in the states that suffered the largest erosion of collective bargaining. The greater the decline in collective bargaining coverage, the lower was the return on productivity obtained by the typical worker.    This takes me to my third point and the subject of my most recent research in the area, which is attached to this statement, the relationship between wages and right-to-work status.    At their core, right-to-work laws hamstring unions' ability to help employees bargain with their employers for better wages, benefits, and working conditions. Given that unionization raises wages for both individual union members as well as for nonunion workers in unionized sectors, it is not surprising that research shows that both union and nonunion workers in right-to-work states have lower wages and fewer benefits on average than comparable workers in other states.    Wages in right-to work states are 3.1 percent lower than those in non-right-to-work states after controlling for a full complement of individual, demographic, and socioeconomic factors, as well as state macroeconomic indicators.    This translates into right-to-work status being associated with $1,558 lower annual wages for a typical full-time, full-year worker. Related research also finds that workers in right-to-work states are less likely to have employer-sponsored health insurance and pension coverage. And these results do not just apply to union members, but to all employees in the state. Where unions are strong, compensation increases even for workers not covered by any union contract as nonunion employers face competitive pressure to match union standards.    Likewise, when unions are weakened by right-to-work laws, all the state's workers feel the impact. As unions are weakened, workers' diminished bargaining power means lower compensation and a continued divergence between pay and productivity.    Thank you for the opportunity to speak with you about this important issue.</t>
   </si>
   <si>
@@ -91,6 +115,12 @@
     <t>400643</t>
   </si>
   <si>
+    <t>Foxx</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mix, you are recognized.    Mr. Mix. Yes. Thank you for the opportunity, Mr. Chairman, members of the committee. It is a pleasure to be here and talk about right-to-work.    Let's just first of all get a better definition on the table here about what right-to-work is. Right-to-work laws in 25 states do not stop any worker from joining a union. Right-to-work laws in 25 states do not stop any worker from paying union dues. Right-to-work laws in 25 states do not stop any worker from supporting the political campaigns and political actions of labor unions. They simply give workers the choice.    Fundamentally, at the bottom of the right-to-work fight is a battle between union officials and the very workers they claim to represent. This is not a battle between business and labor. This is a battle between union officials and workers, who, if given the choice, may decide they don't want to associate with a labor union. Unfortunately, in 25 states, they can be fired from their jobs for failure to tender dues or fees to a union.    You know, we talk about the right to associate in this country, the right of association. In order to have the right to associate, it is fundamentally sound to believe that you must have the right not to associate. Yet, labor policy throws that associational privilege on its head by forcing workers to associate with someone and some organization which they may not want to associate with. That is the original injustice of what we have in this regime of compulsory unions and for over 80 years in this country since 1935.    One solution, one minor solution, is to give workers the choice. In 1947, as the Chairman mentioned, Taft-Hartley was passed to basically address the issue that from 1935 from 1947, forced workers not only to pay fees to them, but actually forced them to join, to physically join a private organization. In General Motors in 1963, the Supreme Court said we have gone too far. We can't force them to join a private organization, but we can force them to pay up to 100 percent of dues or fees to keep their jobs.    The duty of monopoly representation is something that we should be discussing here, and it is something that is relevant to the discussion of the NLRB's action when it comes to charging workers for representational fees. You know, this so-called duty of fair representation was created by the U.S. Supreme Court interpreting the National Labor Relations Act in a case called Steele v. Louisville National Railroad, 1944.    And that case was a very interesting one. Because if you look at it, what happened in that case is five black train workers were not going to be represented by the union. They were forced to join, but the white union officials said they would not represent those workers. And those workers went to the Supreme Court and they said we are forced to join this organization, we are forced to accept them as our bargaining agent, but yet they choose not to support us and not represent us; in fact, won't let us even participate in a union.    And the Supreme Court said in that case, said that is a pretty amazing power that we have given to organized labor officials. And because we have given them that power to control the livelihoods of these workers and to force ourselves in between them and their opportunity to speak for themselves, we believe that the statute also created a duty to represent those workers. That is the duty of fair representation.    So you had this forced association and then you had the union saying we are not going to represent you--in this particular case because of the color of your skin--and we had the court coming back saying we can't give you this monopoly bargaining power without the right to have workers be able to represent them as well, even though they don't want to be associated with you.    The notion that we are now coming back after 60 years of NLRB precedent, Supreme Court precedent, and U.S. District Court and federal court precedent and considering the idea that we are going to force workers to pay fees for grievance representation is just another example of union officials trying to get around the right-to-work protections.    I mean, I would be scared, too if I were union officials, because three states have passed trying work laws in the last three years. Eleven states had bills in their legislature. Missouri, the House and Senate passed a right-to-work law. In New Mexico, the House of Representatives passed a right-to-work law. In Maine, there is a debate over right-to-work; in Montana. The issue of worker freedom is spreading across the country. And one of the things that you could do to stop that was to give union officials new power to force nonmembers to pay fees.    The court, in a case called Emporium v. Capwell, said that individual employees cannot individually use the grievance process. Union officials own the grievance process. That is a fact. The Supreme Court has said that, District Courts have said that, the NLRB has said that. And despite what Betty Murphy, the Republican member of the NLRB, said in 1975, in four instances since that time in NLRB proceedings, the NLRB has upheld the notion that you can't force workers to pay grievance fees.    The extant case here, the Buckeye case we are talking about, is about the idea of forcing this worker to pay a fee. Now, obviously, nothing has been happening yet on this. And we expect the NLRB to ask. They have asked for briefs, as the professor said. And we expect that the three members of that board who have changed the rules as to union elections and are looking to change the rules as to how strikes are operated are interested in changing the rules on how right-to-work laws are enforced. And I would be glad to talk to you more about that in question-and-answer.    Ms. Foxx. [Presiding.] Thank you very much. Thanks to all the panelists for doing such a great job of staying within time. I now recognize myself for five minutes to ask questions. The Chairman had to step away and will be back.</t>
   </si>
   <si>
@@ -166,6 +196,12 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman. And thank you all for being here and for your testimony.    Mr. Chairman, here we are again. We are here at the same place we were before talking about states' rights. Here we are again, moving back in time to a place where we want to ignore established law, we want to once again put states in a position to make a determination as to who should work and who should not. We have come to a point where we are disproportionately once again affecting populations who are poor and populations of color.    I listen to the governor talk about what happened back in 1953. Mr. Mix talked about what happened in 1944. That was before the Civil Rights Act of 1964. It was before the Voting Rights Act of 1965. It was before nondiscrimination labor laws. So let's not talk about the past. Let's deal with established law.    Professor Bruno, you talked about, or gave us examples of workers who are costing the government more money because they are in right-to-work states. Could you expand upon that, please?</t>
   </si>
   <si>
@@ -205,6 +241,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman. And I appreciate my colleagues saying we should not ignore established laws.</t>
   </si>
   <si>
@@ -244,6 +286,12 @@
     <t>412585</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. And thank you to the witnesses for being here today.    First of all, Mr. Chairman, I think, you know, the Committee, the name we have for today's hearing is a little misnamed and misguided. I think right-to-work laws prohibit union fees as a condition of employment. But grievance fees, if deemed lawful, are not a condition of employment. Grievance fees are not an attack on right-to-work laws. So the hearing is misnamed.    In fact, I would argue that we should be talking about right to freeload, rather than right-to-work laws. Because that is what I see out of this, is really a right to freeload. In fact, Mr. Mix, in your written testimony you talk about this idea of someone getting in a cab. Well, this morning I got on the metro, all right? And I swiped my card to pay. If someone else decided the metro's already going where they are going to, why don't they just hop the fence and go in, I would consider that freeloading.    And that is exactly what I see by people not paying their fees; right? I mean, we know there are cheap people in society, right? They don't want to pay to get the benefits like the others. But really, it is more about freeloading more than anything else. And I think that is what is behind these right-to-work laws.    We just went through this fight in Wisconsin. So I am very familiar with it. In fact, one of the other things that in addition to the freeloading aspect of this, it is not just that you make less money and you get less benefits, but also it doesn't create jobs. And it is not just the anecdotal sort of this is what happens in Alabama. But this is Bureau of Labor Statistics.    And I am very sensitive to these because I got PolitiFact'ed on this. And I got a mostly true because I said Wisconsin was dead last in the Midwest for job creation. Technically, we are tied for dead last. Nebraska was, in this particular report, tied for second to last.    But right-to-work doesn't seem to be having that magical formula of creating additional jobs, at least according to the Bureau of Labor Statistics, who actually counts the jobs, rather than anecdotes about individual states.    But the bottom line is people really do make less money. We know that. We know according to some studies you make $6,000. In other studies you make $7,000 less than states with right-to-work. And then I believe you make $4,000 less than the national average in right-to-work states.    So again, those are concrete numbers that show that you have a right to work for less in these states. But it doesn't necessarily benefit any people.    What I would like to do is that I would ask unanimous consent to enter into the record, I have got a list of 468 businesses in Wisconsin that oppose the right-to-work law that we just had.</t>
   </si>
   <si>
@@ -274,6 +322,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. Thank you to our distinguished guests today.    Is there anything to prohibit a person from voluntarily paying a union fee?</t>
   </si>
   <si>
@@ -298,6 +352,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    And thank you to our panel of witnesses for their testimony. This has been a very interesting discussion that has obviously gone beyond the scope of what is suggested by the title.    And I just wanted to make a big picture comment to start about some of the language. There was an analogy about union membership being analogized to kidnapping and extortion. And I think that kind of message is not very productive in a discussion about the benefits of union membership. And as some might say, not benefits. But let's have a discussion that doesn't inflame people.    And interesting that I am following on the member from Michigan. I actually was born and raised near Detroit. So my grandfather worked for Ford Motor Company before 1941, before the UAW came to Ford Motor Company. And just looking at the differences in his workplace over time from before the UAW was there in terms of safe working conditions.    And when we talk about union members, you know, we shouldn't make these stereotypes with the inflammatory language. We are talking about teachers and firefighters and people who take care of sick patients. You know, there is a really broad range of people in unions. So let's make sure that we are having a factual discussion.    So I represent a district in Oregon. We were the first state to officially recognize Labor Day back in 1887, and firmly believe that the workers in Oregon as well as across the country should be able to collectively bargain for fair wages, reasonable hours, safe workplace, health care, other hallmarks of a democratic society.    And unions continue to do things like build the infrastructure, help our economy grow, strengthen the innovation of America's workforce has long been the key to our success as a nation. And looking back over history, we cannot understate the role of the labor movement in helping to create and maintain a thriving middle class.    So in Oregon, I know we have had some discussions about the disparity in wages between union members and people who aren't in a union. But for example, the University of Oregon Labor Education Research Center identified the median hourly wage for a certified nursing assistant in an Oregon nursing facility. And there was a difference--$12.15 but in a unionized facility it was $14.29. With insurance and retirement benefits included, a little more than $15 an hour.    So when you talk about those differences in wages--and obviously, as we saw in--over history, when people have more discretionary income, they spend more so--in the marketplace.    So I wanted to ask you, Dr. Gould, your testimony states that wages in right-to-work states are lower than in states without right-to-work. And there is obviously a difference in states across the country. We have a very diverse country. So can you explain whether and how this remains true, if there are--differences in tax policy, demographics, education, other types of industry.    And I know my state of Oregon is not a right-to-work state. And we have businesses that love doing business there. It is a place to live. There are a lot of other factors that go into that consideration. So can you talk about that, whether there is data to show, considering those variations to the whole.</t>
   </si>
   <si>
@@ -319,6 +379,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman. And thank you, distinguished panel, for your testimony here today. It has been very enlightening.    As a business owner for the last 37 years in the state of Georgia, I have experienced lots of activity, both with the union and nonunion workers. Actually, the company I started working with was union. And then when we formed our company, we elected to go nonunion at that time because that was sort of the trend. And that was in the mid-1970s.    One of the things that I value about our employee relationship is the fact that, you know, we are--kind of turned the hierarchy upside down. The workers actually have a good bit to say about how we run our business. And we like it that way. And I found that in my union involvement, it was always a conflict. And it was very difficult to deal with.    But I will say that Georgia was selected by Site Selection magazine as the number one state to locate a business in. And we have been a right-to-work state for a long, long time. And we too are very proud of our workers and our productivity, our cost of living, which I don't think we have talked about cost of living or the cost of products and things like that make a big difference and competitiveness, makes a big difference, you know, where we are.    And the fact that our workers love where they work. And I have experienced that touring many of our manufacturers throughout the district since I was just recently elected to Congress. And what I have been amazed at is the attitude of the workforce out there with these manufacturers. And it has been quite enlightening to me as far as the labor front goes.    Mr. Hewitt, we haven't asked you a question. And I have been involved in United Way. I love that organization because I think it is like 90 percent of what we raise actually goes to help the agencies and the folks we are trying to help. And that is what community is all about.    And I am sure as a National United Way, you have talked to others in the--around the--I don't--we are not union. Our United Way is not union. They are in Augusta. But in your talking with these other United Ways and your having to spend apparently a lot of your time dealing with these union issues, how are you doing that and still being able to serve the very folks that need serving? Can you explain that?</t>
   </si>
   <si>
@@ -370,6 +436,9 @@
     <t>412613</t>
   </si>
   <si>
+    <t>DeSaulnier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman. I really find this conversation interesting. Having grown up in two states that are not right-to-work states, Massachusetts, and have lived most of my live in the Bay Area, both areas that I would argue are cornerstones to innovation in this country but also have strong historical labor movements.    So while I appreciate the details of Mr. Mix and the issues about around what NLRB is about to do, I tend to believe that NLRB will do as it is designed to, as it is designed to do in the political context of who is appointed to that, depending on the administration. And then the courts will opine one way or the other.    So I am more interested in sort of the macro of--Mr. Lincoln once said that in the United States, we should always keep capital and labor roughly within balance. And he also said if capital were to become out of balance and superior, we would lose American democracy, which is my fear sitting here today.    And I say that as a former union member, but also as a former business owner of nonunion restaurants. I tended to think that if I treated my employees well, they wouldn't have a reason to organize. Sort of similar to what I have heard from the governor and previous comments.    So, Dr. Bruno, in the larger context, it seems irrefutable that we are in a period where we are in an economy that requires--is 70 percent consumer-driven. If you don't have people who are making enough income--and this is one of our challenges in the Bay Area where, by the way, we get a third of the venture capital in the United States comes to the innovative companies in the Bay Area. Our struggle is the cost of housing and the cost of living there.    And it seems pretty irrefutable that we need to have higher wages for people to buy tech products and be able to afford to live there.    So Dr. Bruno, I'd just like to ask you in your last comment, you said, ``the gradual decline in unionization has been found to be a driving force in the increase in income inequality both in the United States and across the world.''    In light of the comments that I made and the need to have a strong consumer class as your research, Dr. Gould, led you to believe at a larger level, we need to do some adjusting to the imbalance of capital markets and what we compensate workers for in America.</t>
   </si>
   <si>
@@ -385,6 +454,12 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. I have a couple questions for Dr. Bruno. We have recently been through rather significant changes in our labor laws in the state of Wisconsin. And both in the public sector and private sector. The public sector--the private sector change is fairly recent. Haven't had time to analyze it.    But at least in the public sector, I can think of a few examples in which, because you don't have collective bargaining, individual employees were able to make more. And, of course, that is because under most labor union contracts, everybody is treated the same. And if you have one employee who is more productive than another employee, or you have one employee whose job is different than another employee but the labor union tries to put them all in the same box, people are denied their ability to make what their job would.    How do you justify telling a very productive employee or perhaps an employee whose job description is a little different than another employee that they have to have their wages artificially held down by a union contract that they are forced to pay to negotiate?</t>
   </si>
   <si>
@@ -406,6 +481,12 @@
     <t>400162</t>
   </si>
   <si>
+    <t>Grijalva</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you very much, Mr. Chairman.    And the state that I was born in, live in is a right-to-work state, Arizona. And from what I have heard today of some of the comments, I--you know, I guess right-to-work laws are the panacea for citizen democracy, economic growth, individual growth, economic growth, as well.    And the fact remains, though, that ongoing and not only in my state but across this country, there is a very fundamental economic problem that families are facing in this country. That is stagnant wages and income inequality across the board.    And let me turn to Dr. Bruno, Dr. Gould. Right-to-work laws as being promoted today, putting aside the fact that there is nothing in law that prevents a rule that requires employees if you are taking the benefit of a grievance representation, then you should be able to kick in a little bit in terms of a fee for that representation. There is nothing.    But having said that, income inequality and the right-to-work law as the salve that is going to take care of this issue, which continues to persist. One question.    Have either of you--has there ever been any study--because when we talk about economic growth, I think it is always good to put another ledger there in terms of the public subsidies that go into bringing a company into a state--tax relief, forgiving taxes for 10 years, building the infrastructure--as an attraction to bring that in and what that public cost is, as well.    With that, let me--that is the only question--</t>
   </si>
   <si>
@@ -427,6 +508,12 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. And thanks to the panel for being here.    I would state, Professor Bruno, your slip on Illinois being a right-to-work state. From your lips to God's ears, I hope.    As a proud son, proud son of Illinois and a former United Steelworker working at U.S. Steel South Works. And if you know anything about U.S. Steel South Works, it is no longer there. The union could not save South Works. Electric furnace where I worked the, the bop shop, the blast furnaces, the rolling mills. Now, there are other problems with that, as well. It is not only the United Auto Workers fault. I understand that.    But in our setting, in Michigan where I live now--and I can proudly say we are a right-to-work state. And I have colleagues often ask me, did I remember accurately that Michigan is a right-to-work--yes, it is. But it is more than that. It is an employee free-choice state. It is also an employer free-choice state.    Because like my friend and colleague, Mr. Pocan from Wisconsin who is a business owner and has union at his business. Has that choice, as well. My father helped organize U.S. Steel United Workers there. Proud union member. Until later years when he said wait a second, we got the things we needed; working standards, safety, benefits and other things that are important. But now, let's make sure we keep the jobs, as well.    And so let me ask you, Governor Ricketts, and thank you for being here. Why do entrepreneurs and start-up companies value right-to-work legislation?    Governor Ricketts. One of the things that start up companies and entrepreneurs are looking for are making sure they have access to the best talent. And people who, you know, they are looking to attract are looking to have choice.    And so I think that, again, when you are talking about undermining the right-to-work laws, such as the NLRB is talking about doing right now for Nebraska which, again, in our constitution. You are making it harder for us to keep those young people here in Nebraska that would be attracted to these companies and are start-up companies to be able to create those jobs.    So to me it gets back to choice and attracting the best talent available.</t>
   </si>
   <si>
@@ -445,6 +532,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mix. They cannot. They cannot.    Chairman Kline.--has expired.    Mr. Jeffries.    Mr. Mix.--they can't.    Mr. Jeffries. Thank you, Mr. Chair.    Let me start with Mr. Mix. To the extent that a union in a right-to-work state collectively bargains a higher wage, the nonunion employee benefits from that higher wage; correct?</t>
   </si>
   <si>
@@ -529,6 +622,9 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman.    Mr. Hewitt, what were the factors that led you to believe your union officers had become unresponsive to your concerns? And under what circumstances would you financially support a union?</t>
   </si>
   <si>
@@ -550,6 +646,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    My question, Dr. Bruno or Dr. Gould, are either of you familiar with the role of training, the amount of training that unions provide to workers, especially in the building trades? I myself have visited the carpenter's union training facilities, and they are quite impressive.    Is there any other entity that--for workers, especially in the construction trades, that finances that level of training?</t>
   </si>
   <si>
@@ -586,6 +685,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman. I thank the witnesses for their testimony this morning. I am learning a lot. My first question is I think is to the governor. Thank you for being here, especially.    It seemed to me Mr. Bruno's testimony was mostly commenting on the negative economic effects of right-to-work. And I just to make sure that if you wanted to respond to any of that with any of your personal experience or from your state or anywhere else, I would like to hear it.    Governor Ricketts. Sure. It is just not my experience in the real world, the practical world, that being a right-to-work state is a disadvantage. In fact, just the opposite; that being a right-to-work state was certainly one of the things that--particularly when I was an executive, as I mentioned before, that was an important factor about where we were looking to expand. I think as companies look to see what their options are, it is an important tool to make sure they have flexibility. And frankly, that the people that work for them have flexibility. So I think it is an important thing there.    And if you look at Nebraska, for instance, we have got the lowest unemployment rate in the country, 2.5 percent. As I mentioned, we have got a high workforce participation rate. We see a lot of economic things going on in our state that are very, very good.</t>
   </si>
   <si>
@@ -619,6 +724,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman. And thank you to all the witnesses who are here today.    My oldest son graduated from high school last Friday. And as I looked out on that stage with incredible pride as a mom, but also wondering about the future for these high school grads and the college graduations that I attended in my district, as well.    I would describe my home state of Massachusetts as a right-to-a-fair-shot state. We are a proud union state. We protect collective bargaining. And I looked at these high school seniors graduating, going off to make their world in the workplace or at college. And I thought about what they are facing; rise of income inequality, a rise of child poverty, and also a rise of corporate influence and power. Not only in the board rooms, but in the political process, as well. And I have to say that I believe this right-to-work is an incredible misnomer.    But my question is for Dr. Bruno and Dr. Gould, what do you see the impact for these young people, for the people that we are trying to attract? And, by the way, I have never talked to a business that is thinking of leaving Massachusetts who has ever cited unions as a problem. High cost of housing, high cost of electricity, those are issues that we need to address. It is not unionization--that is making us a better and wealthier communities--that is ever cited as an issue.    But how do you see these issues around health insurance coverage, pensions, and wages affecting our most recent graduates?</t>
   </si>
   <si>
@@ -632,6 +743,12 @@
   </si>
   <si>
     <t>400179</t>
+  </si>
+  <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott for holding this important hearing today. And thanks to all the panelists for your testimony.    In these current economic challenges, I believe that it is vitally important that our nation protect the rights of American workers; to achieve this goal, and to be effective, we must get through the demagoguery and allow the National Labor Relations Board to do its job.    In many of the questions that have been asked, I can identify with the concerns that have been asked by my colleagues on both sides of the aisle. My first question is going to be to Dr. Elise Gould.    What is the relationship between the rising inequality and stagnant wages? And what role does the decline in union density play in the wage stagnation and decline of the middle class?</t>
@@ -1004,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,7 +1129,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,4421 +1151,5252 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G74" t="s">
+        <v>102</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G78" t="s">
+        <v>112</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G80" t="s">
+        <v>112</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G82" t="s">
+        <v>121</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G84" t="s">
+        <v>121</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G86" t="s">
+        <v>121</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G89" t="s">
+        <v>121</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G91" t="s">
+        <v>121</v>
+      </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G92" t="s">
+        <v>121</v>
+      </c>
       <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G94" t="s">
+        <v>121</v>
+      </c>
       <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G96" t="s">
+        <v>121</v>
+      </c>
       <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G98" t="s">
+        <v>140</v>
+      </c>
       <c r="H98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>117</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G100" t="s">
+        <v>140</v>
+      </c>
       <c r="H100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G102" t="s">
+        <v>146</v>
+      </c>
       <c r="H102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
       <c r="H104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G106" t="s">
+        <v>146</v>
+      </c>
       <c r="H106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="G108" t="s">
+        <v>155</v>
+      </c>
       <c r="H108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="G110" t="s">
+        <v>155</v>
+      </c>
       <c r="H110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="G112" t="s">
+        <v>155</v>
+      </c>
       <c r="H112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G114" t="s">
+        <v>164</v>
+      </c>
       <c r="H114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G115" t="s">
+        <v>164</v>
+      </c>
       <c r="H115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G116" t="s">
+        <v>164</v>
+      </c>
       <c r="H116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G117" t="s">
+        <v>164</v>
+      </c>
       <c r="H117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G119" t="s">
+        <v>172</v>
+      </c>
       <c r="H119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G120" t="s">
+        <v>172</v>
+      </c>
       <c r="H120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G121" t="s">
+        <v>172</v>
+      </c>
       <c r="H121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G122" t="s">
+        <v>172</v>
+      </c>
       <c r="H122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G123" t="s">
+        <v>172</v>
+      </c>
       <c r="H123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G124" t="s">
+        <v>172</v>
+      </c>
       <c r="H124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G125" t="s">
+        <v>172</v>
+      </c>
       <c r="H125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G127" t="s">
+        <v>172</v>
+      </c>
       <c r="H127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G128" t="s">
+        <v>172</v>
+      </c>
       <c r="H128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G129" t="s">
+        <v>172</v>
+      </c>
       <c r="H129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G130" t="s">
+        <v>172</v>
+      </c>
       <c r="H130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>142</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G132" t="s">
+        <v>172</v>
+      </c>
       <c r="H132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G133" t="s">
+        <v>172</v>
+      </c>
       <c r="H133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>142</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G134" t="s">
+        <v>172</v>
+      </c>
       <c r="H134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G135" t="s">
+        <v>172</v>
+      </c>
       <c r="H135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>142</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G136" t="s">
+        <v>172</v>
+      </c>
       <c r="H136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G137" t="s">
+        <v>172</v>
+      </c>
       <c r="H137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G138" t="s">
+        <v>172</v>
+      </c>
       <c r="H138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G139" t="s">
+        <v>172</v>
+      </c>
       <c r="H139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>142</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G140" t="s">
+        <v>172</v>
+      </c>
       <c r="H140" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G141" t="s">
+        <v>172</v>
+      </c>
       <c r="H141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>142</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G142" t="s">
+        <v>172</v>
+      </c>
       <c r="H142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G143" t="s">
+        <v>172</v>
+      </c>
       <c r="H143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>142</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G144" t="s">
+        <v>172</v>
+      </c>
       <c r="H144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>142</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G145" t="s">
+        <v>172</v>
+      </c>
       <c r="H145" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G147" t="s">
+        <v>202</v>
+      </c>
       <c r="H147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I147" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G149" t="s">
+        <v>202</v>
+      </c>
       <c r="H149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G151" t="s">
+        <v>202</v>
+      </c>
       <c r="H151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G153" t="s">
+        <v>210</v>
+      </c>
       <c r="H153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G155" t="s">
+        <v>210</v>
+      </c>
       <c r="H155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I155" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G156" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G157" t="s">
+        <v>210</v>
+      </c>
       <c r="H157" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I157" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>26</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>177</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G160" t="s">
+        <v>210</v>
+      </c>
       <c r="H160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I160" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>177</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G162" t="s">
+        <v>210</v>
+      </c>
       <c r="H162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>189</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G164" t="s">
+        <v>223</v>
+      </c>
       <c r="H164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G165" t="s">
+        <v>223</v>
+      </c>
       <c r="H165" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>189</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G166" t="s">
+        <v>223</v>
+      </c>
       <c r="H166" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G167" t="s">
+        <v>223</v>
+      </c>
       <c r="H167" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G168" t="s">
+        <v>223</v>
+      </c>
       <c r="H168" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G169" t="s">
+        <v>223</v>
+      </c>
       <c r="H169" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>189</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G170" t="s">
+        <v>223</v>
+      </c>
       <c r="H170" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I170" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G171" t="s">
+        <v>223</v>
+      </c>
       <c r="H171" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I171" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>189</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G172" t="s">
+        <v>223</v>
+      </c>
       <c r="H172" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I172" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>200</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="G174" t="s">
+        <v>236</v>
+      </c>
       <c r="H174" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I174" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="G176" t="s">
+        <v>236</v>
+      </c>
       <c r="H176" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>205</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="G178" t="s">
+        <v>243</v>
+      </c>
       <c r="H178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="I178" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>205</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="G180" t="s">
+        <v>243</v>
+      </c>
       <c r="H180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="I180" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>205</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="G182" t="s">
+        <v>243</v>
+      </c>
       <c r="H182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="I182" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
       <c r="H184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>213</v>
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94824.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94824.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Kline</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400364</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -113,6 +122,9 @@
   </si>
   <si>
     <t>400643</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Foxx</t>
@@ -1121,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1141,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,5249 +1166,5712 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H84" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G92" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G94" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G96" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="I98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G100" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="H100" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="I100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G106" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G108" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="H108" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I108" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>29</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G110" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G112" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="H112" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="H114" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I114" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G115" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="H115" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G116" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="H116" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G117" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="H117" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I117" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G119" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H119" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I119" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J119" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H120" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H121" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I121" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G122" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H122" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I122" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G123" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H123" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I123" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G124" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H124" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I124" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G125" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H125" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I125" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>32</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G127" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H127" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I127" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G128" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H128" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I128" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G129" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H129" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I129" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G130" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H130" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I130" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G132" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H132" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I132" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J132" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G133" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H133" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I133" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G134" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H134" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I134" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G135" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I135" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G136" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I136" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G137" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I137" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G138" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G139" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H139" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I139" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G140" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H140" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I140" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J140" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G141" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I141" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G142" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I142" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J142" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G143" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H143" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J143" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G144" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J144" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I145" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G147" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="H147" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="I147" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G149" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="H149" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="I149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s">
-        <v>23</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G151" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="H151" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="I151" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G153" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="H153" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="I153" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J153" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s">
-        <v>26</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G155" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="H155" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="I155" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s">
-        <v>26</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>29</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G157" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="H157" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="I157" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G160" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="H160" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="I160" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G162" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="H162" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="I162" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G164" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H164" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I164" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G165" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H165" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I165" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G166" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H166" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I166" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G167" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H167" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I167" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G168" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H168" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I168" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G169" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H169" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I169" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G170" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H170" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I170" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G171" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H171" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I171" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J171" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G172" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="H172" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I172" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G174" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="H174" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I174" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J174" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G176" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="H176" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I176" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J176" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G178" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="H178" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I178" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J178" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>29</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G180" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="H180" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I180" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J180" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G182" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="H182" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I182" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J182" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J184" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>252</v>
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
